--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-878569.9631708284</v>
+        <v>-881118.6203568485</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>145.2219459239378</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>179.0944876018802</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>36.18491463503086</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991716</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>20.37870693812289</v>
+        <v>296.6026177506928</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>115.4804327218783</v>
+        <v>28.33530928504439</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>48.52634901048868</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>228.5394683647129</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>121.0501597139883</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8006684191506</v>
       </c>
     </row>
     <row r="11">
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>156.5238857907022</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>63.38272884730779</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229318</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.6773350344787</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>134.1343006978454</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>72.60410776434584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>20.92847288552873</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>61.66004604094925</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487358</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.5513683573777</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>166.3208822291522</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869782</v>
+        <v>164.2607468869785</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036687</v>
+        <v>151.675587803669</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232532</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>130.86272935161</v>
+        <v>130.8627293516103</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279721</v>
+        <v>55.15928926145995</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973097</v>
+        <v>149.95290499731</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512648</v>
+        <v>124.723479551265</v>
       </c>
       <c r="I34" t="n">
-        <v>65.6946030236064</v>
+        <v>65.6946030236067</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.80401341516286</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066854</v>
+        <v>165.4550527066858</v>
       </c>
       <c r="T34" t="n">
-        <v>44.90346525773239</v>
+        <v>201.8342170323294</v>
       </c>
       <c r="U34" t="n">
-        <v>270.613241094285</v>
+        <v>270.6132410942853</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288689</v>
+        <v>236.5664100288692</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416319</v>
+        <v>270.9517650416322</v>
       </c>
       <c r="X34" t="n">
-        <v>210.138422094078</v>
+        <v>210.1384220940783</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571356</v>
+        <v>203.013420057136</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308911</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652485</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.41801219738</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.455495256968</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="D2" t="n">
-        <v>1044.189796650217</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>658.4015440519729</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>247.4156392623654</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261502</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.017852261502</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686095</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064769</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2043.619166450419</v>
+        <v>680.3679798527294</v>
       </c>
       <c r="C4" t="n">
-        <v>2007.068747627156</v>
+        <v>511.4317969248225</v>
       </c>
       <c r="D4" t="n">
-        <v>1856.95210821482</v>
+        <v>361.3151575124866</v>
       </c>
       <c r="E4" t="n">
-        <v>1709.039014632427</v>
+        <v>213.4020639300936</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>3036.502954734814</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>2781.818466528927</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>2492.401296491967</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>2264.411745593949</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>2043.619166450419</v>
+        <v>862.0164446829691</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827856</v>
+        <v>1159.107070935491</v>
       </c>
       <c r="D5" t="n">
-        <v>883.8708262827856</v>
+        <v>800.841372328741</v>
       </c>
       <c r="E5" t="n">
-        <v>498.0825736845414</v>
+        <v>415.0531197304968</v>
       </c>
       <c r="F5" t="n">
-        <v>87.09666889493383</v>
+        <v>408.1076189812933</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1618.961762176048</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="U7" t="n">
-        <v>1329.858895301692</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V7" t="n">
-        <v>1329.858895301692</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W7" t="n">
-        <v>1040.441725264731</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X7" t="n">
-        <v>812.4521743667135</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.4521743667135</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758595</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.206671818183</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1509.206671818183</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1123.418419219939</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>712.4325144303314</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>297.3600642753278</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085552</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>434.0237757962194</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>286.1106822138263</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>286.1106822138263</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>286.1106822138263</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.57599612053</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926228</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802869</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E13" t="n">
-        <v>622.6100801978939</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F13" t="n">
-        <v>475.7201326999837</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235164</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235164</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029277</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992317</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.224460950769</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>763.7541388327646</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>763.7541388327646</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>613.6374994204289</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888048</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2166.101889898846</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1877.026663243044</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.342175037157</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.925005000197</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.935454102179</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1428749586493</v>
+        <v>945.4026036630044</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>915.10353054737</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>915.10353054737</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>915.10353054737</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>114.956534649516</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>114.956534649516</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>114.956534649516</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>297.8113689946115</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>297.8113689946115</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>156.0995378368095</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797744</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885523</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679636</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642675</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744658</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459577</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180508</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057152</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4852666057152</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>449.4852666057153</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761975</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.9279362553152</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553152</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429796</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429796</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429796</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1809.46018936995</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1554.775701164063</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.358531127102</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.368980229085</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.5764010855549</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>988.5675309052295</v>
+        <v>778.7344347539529</v>
       </c>
       <c r="C34" t="n">
-        <v>835.3598664570793</v>
+        <v>625.5267703058023</v>
       </c>
       <c r="D34" t="n">
-        <v>700.9717455245003</v>
+        <v>625.5267703058023</v>
       </c>
       <c r="E34" t="n">
-        <v>568.7871704218639</v>
+        <v>493.3421952031656</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037101</v>
+        <v>437.6257414037111</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983467</v>
+        <v>286.1581605983474</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203016</v>
+        <v>160.1748479203019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403052</v>
+        <v>189.4682024403049</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278533</v>
+        <v>466.5729859278527</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658029</v>
+        <v>872.3871010658021</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758847</v>
+        <v>1309.812324758846</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380864</v>
+        <v>1742.637717380863</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051859</v>
+        <v>2127.582519051858</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587427</v>
+        <v>2435.673495587425</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276336</v>
+        <v>2570.287251276334</v>
       </c>
       <c r="R34" t="n">
-        <v>2570.287251276336</v>
+        <v>2518.970066008493</v>
       </c>
       <c r="S34" t="n">
-        <v>2403.160935410997</v>
+        <v>2351.843750143154</v>
       </c>
       <c r="T34" t="n">
-        <v>2357.803899797126</v>
+        <v>2147.970803645851</v>
       </c>
       <c r="U34" t="n">
-        <v>2084.457191621081</v>
+        <v>1874.624095469805</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.501221894951</v>
+        <v>1635.668125743675</v>
       </c>
       <c r="W34" t="n">
-        <v>1571.812570337747</v>
+        <v>1361.97947418647</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.551537919486</v>
+        <v>1149.718441768209</v>
       </c>
       <c r="Y34" t="n">
-        <v>1154.487477255713</v>
+        <v>944.6543811044362</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7129,16 +7129,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438401</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>209.4610956967451</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8272380515733</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.061906463597</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.000252501566637</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>125.505489761044</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.05123379926138</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>5.728115292809576</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.48117232036698</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>213.9188905722452</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>60.33736343303681</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>19.60579027761628</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405083</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.97276993489112</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>119.8635921600919</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.0442397232535</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.69052546651247</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516255</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>156.9307517745967</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.734435479913373e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1200910.281947969</v>
+        <v>1200910.281947968</v>
       </c>
     </row>
     <row r="6">
@@ -26323,13 +26323,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26341,19 +26341,19 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>224415.4372624254</v>
+        <v>224415.4372624255</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596731</v>
+        <v>12456.98663596706</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317625</v>
+        <v>92025.75929317655</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>10990.29103211609</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="G4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.0322517935</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179358</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.0322517935</v>
-      </c>
       <c r="L4" t="n">
-        <v>16290.74400645661</v>
+        <v>16290.74400645651</v>
       </c>
       <c r="M4" t="n">
+        <v>19157.891514887</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19157.89151488701</v>
+      </c>
+      <c r="O4" t="n">
         <v>19157.89151488699</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19157.89151488698</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.891514887</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1260120.572887096</v>
+        <v>-1260468.191816902</v>
       </c>
       <c r="C6" t="n">
-        <v>27498.47912813982</v>
+        <v>27498.47912814002</v>
       </c>
       <c r="D6" t="n">
         <v>27498.47912813982</v>
       </c>
       <c r="E6" t="n">
-        <v>-215736.708968304</v>
+        <v>-215771.4468937397</v>
       </c>
       <c r="F6" t="n">
-        <v>109675.7528390508</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="G6" t="n">
-        <v>109675.7528390512</v>
+        <v>109641.0149136153</v>
       </c>
       <c r="H6" t="n">
-        <v>109675.7528390511</v>
+        <v>109641.0149136155</v>
       </c>
       <c r="I6" t="n">
-        <v>109675.7528390511</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="J6" t="n">
-        <v>-107855.4495582263</v>
+        <v>-107890.1874836622</v>
       </c>
       <c r="K6" t="n">
-        <v>109675.7528390511</v>
+        <v>109641.0149136155</v>
       </c>
       <c r="L6" t="n">
-        <v>93236.1187842205</v>
+        <v>93223.65469830947</v>
       </c>
       <c r="M6" t="n">
-        <v>11438.72005069943</v>
+        <v>11438.72005069915</v>
       </c>
       <c r="N6" t="n">
         <v>103464.4793438757</v>
       </c>
       <c r="O6" t="n">
-        <v>103464.4793438756</v>
+        <v>103464.4793438757</v>
       </c>
       <c r="P6" t="n">
-        <v>103464.4793438756</v>
+        <v>103464.4793438757</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080576</v>
+        <v>8.713414197080866</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>390.5430187153306</v>
+        <v>114.3191079027606</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>104.0685165542909</v>
+        <v>191.2136399911248</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>316.7465427605189</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>66.06829602260751</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>23.70485520033245</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>39.78398493294424</v>
       </c>
     </row>
     <row r="11">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495913</v>
+        <v>15.57123329495882</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791249</v>
+        <v>96.61771655791219</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045941</v>
+        <v>279.9038217045938</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140906</v>
+        <v>409.9132476140903</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960043</v>
+        <v>441.8436602960039</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848666</v>
+        <v>437.1973662848662</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010046</v>
+        <v>388.8331330010042</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015841</v>
+        <v>311.2030066015838</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948575</v>
+        <v>135.9734905948572</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
